--- a/Content/documents/Sample Excel Contact List.xlsx
+++ b/Content/documents/Sample Excel Contact List.xlsx
@@ -44,15 +44,9 @@
     <t>Date of Event</t>
   </si>
   <si>
-    <t>Joanna</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
-    <t>joanna@fogcitymail.com</t>
-  </si>
-  <si>
     <t>Sandra</t>
   </si>
   <si>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>Jill</t>
+  </si>
+  <si>
+    <t>Peyton</t>
+  </si>
+  <si>
+    <t>peyton@fogcitymail.com</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,19 +456,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="2">
         <v>42867</v>
@@ -476,19 +476,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
         <v>42867</v>
@@ -496,19 +496,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
         <v>42867</v>
@@ -516,19 +516,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2">
         <v>42867</v>
